--- a/all_colleges_ranking.xlsx
+++ b/all_colleges_ranking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giddamr\Documents\JEE Main Counciling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5074ACBA-BC48-41D1-B4CC-6FC43C1E6FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2259D-7B41-4477-B3BB-06DB105F7F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -305,12 +305,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -353,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +880,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4">
@@ -1167,201 +1176,205 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="4">
-        <v>58</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B83" s="4">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B82" xr:uid="{8E9E25B2-3CFD-4913-BC45-28F5ED213C08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
-    <sortCondition ref="B2:B82"/>
+  <autoFilter ref="A1:B83" xr:uid="{8E9E25B2-3CFD-4913-BC45-28F5ED213C08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
+    <sortCondition ref="B2:B83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
